--- a/349-flux---remplacer-http-par-https/ig/CodeSystem-tddui-encounter-identifier.xlsx
+++ b/349-flux---remplacer-http-par-https/ig/CodeSystem-tddui-encounter-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:04:23+00:00</t>
+    <t>2025-09-04T13:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/349-flux---remplacer-http-par-https/ig/CodeSystem-tddui-encounter-identifier.xlsx
+++ b/349-flux---remplacer-http-par-https/ig/CodeSystem-tddui-encounter-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:35:28+00:00</t>
+    <t>2025-09-04T13:46:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/349-flux---remplacer-http-par-https/ig/CodeSystem-tddui-encounter-identifier.xlsx
+++ b/349-flux---remplacer-http-par-https/ig/CodeSystem-tddui-encounter-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:46:23+00:00</t>
+    <t>2025-09-04T13:54:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/349-flux---remplacer-http-par-https/ig/CodeSystem-tddui-encounter-identifier.xlsx
+++ b/349-flux---remplacer-http-par-https/ig/CodeSystem-tddui-encounter-identifier.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T13:54:01+00:00</t>
+    <t>2025-09-16T07:47:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
